--- a/data/trans_orig/P6512-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4790A69F-F990-471E-8FB7-AF33FA918B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A39E30-ED7A-4967-BEC6-62BD1A3F57E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6738E344-41D1-4271-9911-8F0168EFABF1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D86A0276-4756-4FF7-A261-3A1C260C7DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863981CF-36DB-4122-9131-93377E9A670A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA9BC8D-AECB-4D2C-82BC-AAED7EE8708E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P6512-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9A39E30-ED7A-4967-BEC6-62BD1A3F57E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0F9A8F-D968-4316-A388-CEEB02992D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D86A0276-4756-4FF7-A261-3A1C260C7DF9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EE58A10-30C2-4A28-AA1A-38369F4C710E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>80,18%</t>
   </si>
   <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,406 +104,406 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>5,63%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>18,83%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA9BC8D-AECB-4D2C-82BC-AAED7EE8708E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDEADE5-C759-4633-B3DC-C65BAC3272F1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1174,19 +1174,19 @@
         <v>28318</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>20</v>
@@ -1195,13 +1195,13 @@
         <v>20743</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -1210,10 +1210,10 @@
         <v>14126</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -1443,7 +1443,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
         <v>109</v>
@@ -1700,7 +1700,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>180</v>
@@ -1921,7 +1921,7 @@
         <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -1930,13 +1930,13 @@
         <v>156701</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>382</v>
@@ -1948,16 +1948,16 @@
         <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
         <v>309</v>
@@ -1969,7 +1969,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>149</v>
@@ -2014,7 +2014,7 @@
         <v>1824</v>
       </c>
       <c r="D23" s="7">
-        <v>1904358</v>
+        <v>1904359</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>

--- a/data/trans_orig/P6512-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B0F9A8F-D968-4316-A388-CEEB02992D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE5801B-A7A8-413F-A2F9-A707C8D31085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0EE58A10-30C2-4A28-AA1A-38369F4C710E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5C88BC-ADBB-4296-84B1-3BB989FDF110}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>80,18%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
   <si>
     <t>80,72%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -104,28 +104,28 @@
     <t>8,3%</t>
   </si>
   <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>7,31%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -134,28 +134,25 @@
     <t>6,0%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -164,25 +161,28 @@
     <t>5,52%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>14,49%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,64 +194,64 @@
     <t>64,09%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
   </si>
   <si>
     <t>53,37%</t>
   </si>
   <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
   </si>
   <si>
     <t>60,43%</t>
   </si>
   <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
   </si>
   <si>
     <t>14,15%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>12,82%</t>
@@ -260,43 +260,43 @@
     <t>10,38%</t>
   </si>
   <si>
-    <t>15,79%</t>
+    <t>15,95%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
   </si>
   <si>
     <t>19,66%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -305,205 +305,205 @@
     <t>14,84%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>27,02%</t>
   </si>
   <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>26,69%</t>
   </si>
   <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
   </si>
   <si>
     <t>46,59%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>34,36%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>41,49%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>46,9%</t>
   </si>
   <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
   </si>
   <si>
     <t>53,32%</t>
   </si>
   <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
   <si>
     <t>15,56%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
   </si>
   <si>
     <t>12,59%</t>
   </si>
   <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>15,27%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>18,99%</t>
+    <t>18,83%</t>
   </si>
   <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
   </si>
   <si>
     <t>18,91%</t>
   </si>
   <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDEADE5-C759-4633-B3DC-C65BAC3272F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E995173-9CB7-4DBA-929C-F93A37407F50}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1174,19 +1174,19 @@
         <v>28318</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
         <v>20</v>
@@ -1195,13 +1195,13 @@
         <v>20743</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -1210,10 +1210,10 @@
         <v>14126</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>45</v>
@@ -1443,7 +1443,7 @@
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="7">
         <v>109</v>
@@ -1700,7 +1700,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="7">
         <v>180</v>
@@ -1921,7 +1921,7 @@
         <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>152</v>
@@ -1930,13 +1930,13 @@
         <v>156701</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>382</v>
@@ -1948,16 +1948,16 @@
         <v>84</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7">
         <v>309</v>
@@ -1969,7 +1969,7 @@
         <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>149</v>
@@ -2014,7 +2014,7 @@
         <v>1824</v>
       </c>
       <c r="D23" s="7">
-        <v>1904359</v>
+        <v>1904358</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>

--- a/data/trans_orig/P6512-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6512-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE5801B-A7A8-413F-A2F9-A707C8D31085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82782C1F-9B3B-48E1-8AF2-4E9887E06AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F5C88BC-ADBB-4296-84B1-3BB989FDF110}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{22ACEF17-EC3F-47CF-B498-46E10DFA89F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E995173-9CB7-4DBA-929C-F93A37407F50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D7B18D-12BA-4EAB-9922-87E1F0AF5A78}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1296,7 +1296,7 @@
         <v>692</v>
       </c>
       <c r="D9" s="7">
-        <v>720098</v>
+        <v>720099</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1347,7 +1347,7 @@
         <v>173</v>
       </c>
       <c r="D10" s="7">
-        <v>179675</v>
+        <v>179676</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1398,7 +1398,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="7">
-        <v>107655</v>
+        <v>107656</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>69</v>
@@ -1500,7 +1500,7 @@
         <v>1077</v>
       </c>
       <c r="D13" s="7">
-        <v>1123590</v>
+        <v>1123591</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1772,7 +1772,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -2014,7 +2014,7 @@
         <v>1824</v>
       </c>
       <c r="D23" s="7">
-        <v>1904358</v>
+        <v>1904359</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
